--- a/src/test/data/inputs/replaceid.xlsx
+++ b/src/test/data/inputs/replaceid.xlsx
@@ -274,8 +274,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シート間のリンク(リンク先)</t>
-    <rPh sb="12" eb="13">
+    <t>シート間の結合(結合先)</t>
+    <rPh sb="10" eb="11">
       <t>サキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C1" sqref="C1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
